--- a/Team-Data/2011-12/1-31-2011-12.xlsx
+++ b/Team-Data/2011-12/1-31-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.727</v>
+        <v>0.714</v>
       </c>
       <c r="H2" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.404</v>
       </c>
       <c r="O2" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="R2" t="n">
         <v>10.2</v>
       </c>
       <c r="S2" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T2" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U2" t="n">
         <v>22.4</v>
@@ -726,28 +793,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5.1</v>
       </c>
-      <c r="Y2" t="n">
-        <v>4.9</v>
-      </c>
       <c r="Z2" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF2" t="n">
         <v>4</v>
@@ -756,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="AH2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
         <v>8</v>
@@ -765,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -777,49 +844,49 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
         <v>14</v>
       </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX2" t="n">
         <v>12</v>
       </c>
-      <c r="AX2" t="n">
-        <v>11</v>
-      </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.474</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="J3" t="n">
         <v>74.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L3" t="n">
         <v>5.9</v>
@@ -878,67 +945,67 @@
         <v>14.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.415</v>
+        <v>0.419</v>
       </c>
       <c r="O3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="T3" t="n">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="U3" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z3" t="n">
         <v>20.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>16</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>24</v>
@@ -959,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -971,28 +1038,28 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.136</v>
+        <v>0.143</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>0.422</v>
+        <v>0.426</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
-        <v>0.303</v>
+        <v>0.305</v>
       </c>
       <c r="O4" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="P4" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="U4" t="n">
         <v>19.9</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>19.8</v>
-      </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y4" t="n">
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.7</v>
+        <v>-11.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,16 +1187,16 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI4" t="n">
         <v>18</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1147,22 +1214,22 @@
         <v>25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1174,13 +1241,13 @@
         <v>28</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -1302,16 +1369,16 @@
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
         <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
@@ -1320,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1344,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.421</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,40 +1479,40 @@
         <v>34.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.694</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R6" t="n">
         <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="V6" t="n">
         <v>17</v>
@@ -1454,31 +1521,31 @@
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
         <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC6" t="n">
         <v>-3.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
@@ -1490,25 +1557,25 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,13 +1584,13 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV6" t="n">
         <v>29</v>
@@ -1532,22 +1599,22 @@
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
         <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
@@ -1666,13 +1733,13 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1702,13 +1769,13 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -1758,103 +1825,103 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.481</v>
+        <v>0.483</v>
       </c>
       <c r="L8" t="n">
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O8" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P8" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="Q8" t="n">
         <v>0.744</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S8" t="n">
         <v>33.1</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U8" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="V8" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="W8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.4</v>
+        <v>105.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1863,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>17</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>28</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -1890,16 +1957,16 @@
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>5</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.174</v>
+        <v>0.182</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1958,67 +2025,67 @@
         <v>32.5</v>
       </c>
       <c r="J9" t="n">
-        <v>77.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M9" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O9" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P9" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R9" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S9" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="T9" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="U9" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="V9" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="W9" t="n">
         <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y9" t="n">
         <v>5.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA9" t="n">
         <v>18.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-11.2</v>
+        <v>-10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>27</v>
@@ -2030,7 +2097,7 @@
         <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>30</v>
@@ -2039,22 +2106,22 @@
         <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>7</v>
@@ -2066,10 +2133,10 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV9" t="n">
         <v>27</v>
@@ -2081,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,103 +2207,103 @@
         <v>37</v>
       </c>
       <c r="J10" t="n">
-        <v>80.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M10" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O10" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.722</v>
+        <v>0.718</v>
       </c>
       <c r="R10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="W10" t="n">
         <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM10" t="n">
         <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>26</v>
@@ -2245,7 +2312,7 @@
         <v>26</v>
       </c>
       <c r="AS10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>27</v>
@@ -2254,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>5</v>
@@ -2275,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>1.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
         <v>24</v>
@@ -2430,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2457,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J12" t="n">
-        <v>80.3</v>
+        <v>80.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.427</v>
+        <v>0.422</v>
       </c>
       <c r="L12" t="n">
         <v>5.4</v>
       </c>
       <c r="M12" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O12" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.798</v>
+        <v>0.803</v>
       </c>
       <c r="R12" t="n">
         <v>12.6</v>
@@ -2537,16 +2604,16 @@
         <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
@@ -2558,22 +2625,22 @@
         <v>21.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>93.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
@@ -2582,10 +2649,10 @@
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>22</v>
@@ -2597,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>3</v>
@@ -2618,16 +2685,16 @@
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AW12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX12" t="n">
         <v>8</v>
       </c>
-      <c r="AX12" t="n">
-        <v>7</v>
-      </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>23</v>
@@ -2636,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -2746,28 +2813,28 @@
         <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>4</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
         <v>3</v>
@@ -2776,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
         <v>26</v>
@@ -2797,13 +2864,13 @@
         <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>8</v>
       </c>
       <c r="AW13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
@@ -2821,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -2850,115 +2917,115 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.591</v>
+        <v>0.571</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="J14" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.457</v>
+        <v>0.452</v>
       </c>
       <c r="L14" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="M14" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.294</v>
+        <v>0.281</v>
       </c>
       <c r="O14" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="P14" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="R14" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>93.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
         <v>11</v>
       </c>
       <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK14" t="n">
         <v>11</v>
       </c>
-      <c r="AH14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AL14" t="n">
         <v>25</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>24</v>
       </c>
       <c r="AM14" t="n">
         <v>20</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -2967,22 +3034,22 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -2997,13 +3064,13 @@
         <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.524</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.445</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.323</v>
+        <v>0.314</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="P15" t="n">
-        <v>22.9</v>
+        <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
         <v>30.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
         <v>18.9</v>
@@ -3089,28 +3156,28 @@
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA15" t="n">
         <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3122,55 +3189,55 @@
         <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>30</v>
       </c>
       <c r="AN15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS15" t="n">
         <v>20</v>
       </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>19</v>
-      </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>20</v>
@@ -3179,13 +3246,13 @@
         <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3307,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
@@ -3316,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>22</v>
@@ -3340,13 +3407,13 @@
         <v>9</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>12</v>
       </c>
       <c r="AV16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3486,7 +3553,7 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>12</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3504,7 +3571,7 @@
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>23</v>
@@ -3516,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
@@ -3525,16 +3592,16 @@
         <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>17</v>
@@ -3546,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -3656,28 +3723,28 @@
         <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>20</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>18</v>
-      </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>8</v>
@@ -3722,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
         <v>4</v>
@@ -3731,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="L19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="M19" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.358</v>
+        <v>0.354</v>
       </c>
       <c r="O19" t="n">
         <v>16.3</v>
       </c>
       <c r="P19" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="T19" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
         <v>6.7</v>
@@ -3823,34 +3890,34 @@
         <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA19" t="n">
         <v>20.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>91.90000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-7.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3868,19 +3935,19 @@
         <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>16</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,10 +3956,10 @@
         <v>28</v>
       </c>
       <c r="AU19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV19" t="n">
         <v>18</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3901,16 +3968,16 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
         <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4038,13 +4105,13 @@
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4056,25 +4123,25 @@
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>18</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
@@ -4092,7 +4159,7 @@
         <v>24</v>
       </c>
       <c r="BB20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -4124,88 +4191,88 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.381</v>
+        <v>0.35</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="J21" t="n">
-        <v>80.09999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.421</v>
+        <v>0.414</v>
       </c>
       <c r="L21" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.314</v>
+        <v>0.307</v>
       </c>
       <c r="O21" t="n">
         <v>19.7</v>
       </c>
       <c r="P21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31.4</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="V21" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W21" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA21" t="n">
         <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>22</v>
@@ -4220,43 +4287,43 @@
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ21" t="n">
         <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW21" t="n">
         <v>3</v>
@@ -4265,7 +4332,7 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
@@ -4274,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="BB21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4414,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4423,19 +4490,19 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>0.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4608,22 +4675,22 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>3</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
@@ -4808,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
         <v>8</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -4930,25 +4997,25 @@
         <v>-4.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>16</v>
@@ -4969,13 +5036,13 @@
         <v>30</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
         <v>23</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>23</v>
@@ -4990,19 +5057,19 @@
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
@@ -5130,7 +5197,7 @@
         <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5139,10 +5206,10 @@
         <v>18</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>8</v>
@@ -5157,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>6</v>
@@ -5175,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="AY26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -5216,88 +5283,88 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.286</v>
+        <v>0.3</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="J27" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="L27" t="n">
         <v>5.7</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.285</v>
+        <v>0.281</v>
       </c>
       <c r="O27" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.731</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="S27" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>43.2</v>
+        <v>42.7</v>
       </c>
       <c r="U27" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
         <v>90.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-11.3</v>
+        <v>-11.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
@@ -5321,19 +5388,19 @@
         <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,25 +5409,25 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5497,13 +5564,13 @@
         <v>6</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5521,7 +5588,7 @@
         <v>22</v>
       </c>
       <c r="AS28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -5580,121 +5647,121 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="J29" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.421</v>
+        <v>0.424</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M29" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.322</v>
+        <v>0.329</v>
       </c>
       <c r="O29" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P29" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R29" t="n">
         <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U29" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V29" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W29" t="n">
         <v>6.7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>87</v>
+        <v>87.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-6.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ29" t="n">
         <v>26</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5712,25 +5779,25 @@
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -5840,22 +5907,22 @@
         <v>1.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
@@ -5870,10 +5937,10 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>4</v>
@@ -5882,10 +5949,10 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
         <v>8</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-9.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6034,52 +6101,52 @@
         <v>27</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>3</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
         <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
         <v>21</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
@@ -6091,10 +6158,10 @@
         <v>25</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-31-2011-12</t>
+          <t>2012-01-31</t>
         </is>
       </c>
     </row>
